--- a/ExecutionTestData/Batch10/TestData.xlsx
+++ b/ExecutionTestData/Batch10/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\Batch10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\ExecutionTestData\Batch10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42904647-2217-40E7-846B-5C2717886BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -114,19 +115,7 @@
     <t>Max_Ver</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
     <t>Individual_ID</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>Xiaomi</t>
-  </si>
-  <si>
-    <t>121212</t>
   </si>
   <si>
     <t>AppName</t>
@@ -470,160 +459,49 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneX_iOS_13.3.1_90703</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_14.7.1_28411</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_14.3.0_33b29</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_12.4.0_dfb5a</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
-  </si>
-  <si>
-    <t>15.0.0</t>
-  </si>
-  <si>
-    <t>14.0.1</t>
+    <t>11.0.0</t>
   </si>
   <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_12.0.0_8bab6</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneX_iOS_13.5.1_5640f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12mini_iOS_14.7.1_eaf14</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8plus_iOS_12.0.1_fa09b</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13Pro_iOS_15.2.0_2d8ea</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11ProMax_iOS_14.4.2_de1da</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12Pro_iOS_14.2.1_0d955</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXSMax_iOS_13.6.1_da7ab</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_13.3.1_1cb9d</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12_iOS_14.1.0_a050d</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13mini_iOS_15.2.0_22426</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13Pro_iOS_15.0.0_2d2ae</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12ProMax_iOS_14.6.0_de280</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8plus_iOS_14.6.0_5cd33</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7plus_iOS_11.3.0_858f2</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12mini_iOS_14.2.0_461d3</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXSMax_iOS_14.4.0_3f143</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13_iOS_15.2.0_fb8f5</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12ProMax_iOS_14.2.1_e72fa</t>
-  </si>
-  <si>
-    <t>14.6.0</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>14.2.0</t>
-  </si>
-  <si>
-    <t>15.0.2</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>14.2.1</t>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>8.1.0</t>
+  </si>
+  <si>
+    <t>Motorola1_DBS</t>
+  </si>
+  <si>
+    <t>Motorola2_IWealth</t>
+  </si>
+  <si>
+    <t>Motorola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,7 +561,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -693,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -731,12 +609,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,11 +664,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,16 +673,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,6 +781,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -922,6 +833,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1136,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1186,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1213,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1236,7 +1164,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1263,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1282,410 +1210,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" customWidth="1"/>
-    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
@@ -1693,90 +1326,23 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1784,11 +1350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,72 +1444,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>59</v>
+      <c r="A2" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2007,32 +1573,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2059,33 +1625,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -2110,32 +1676,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2149,463 +1715,341 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/Batch10/TestData.xlsx
+++ b/ExecutionTestData/Batch10/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\ExecutionTestData\Batch10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExecutionTestData\Batch10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42904647-2217-40E7-846B-5C2717886BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="178">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -459,50 +458,128 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
+    <t>Samsung</t>
   </si>
   <si>
     <t>8.1.0</t>
   </si>
   <si>
-    <t>Motorola1_DBS</t>
-  </si>
-  <si>
-    <t>Motorola2_IWealth</t>
-  </si>
-  <si>
-    <t>Motorola</t>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_13.5.1_5640f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12mini_iOS_14.7.1_eaf14</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13Pro_iOS_15.2.0_2d8ea</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11ProMax_iOS_14.4.2_de1da</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12Pro_iOS_14.2.1_0d955</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXSMax_iOS_13.6.1_da7ab</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_13.3.1_1cb9d</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12_iOS_14.1.0_a050d</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13mini_iOS_15.2.0_22426</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13Pro_iOS_15.0.0_2d2ae</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12ProMax_iOS_14.6.0_de280</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8plus_iOS_14.6.0_5cd33</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12mini_iOS_14.2.0_461d3</t>
+  </si>
+  <si>
+    <t>13.5.1</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>14.7.1</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>14.4.2</t>
+  </si>
+  <si>
+    <t>14.2.1</t>
+  </si>
+  <si>
+    <t>13.6.1</t>
+  </si>
+  <si>
+    <t>13.3.1</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
+  </si>
+  <si>
+    <t>14.2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +621,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,18 +638,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -629,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,8 +749,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,7 +764,72 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -781,23 +918,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -833,23 +953,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,11 +1128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1114,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1164,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1210,113 +1313,543 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="21" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1326,8 +1859,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1335,26 +1922,85 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +2090,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1509,7 +2155,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1625,7 +2271,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1651,7 +2297,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1715,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
